--- a/cdm/CDMCucumber/CDMProject/src/test/resources/TestData/data.xlsx
+++ b/cdm/CDMCucumber/CDMProject/src/test/resources/TestData/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="136">
   <si>
     <t>TCName</t>
   </si>
@@ -408,6 +408,36 @@
   </si>
   <si>
     <t>TC34_Verification of the removal of search results and text for all columns in the EDGE Device screen</t>
+  </si>
+  <si>
+    <t>TC35_Verification of the search functionality for overall table in the EDGE Device screen</t>
+  </si>
+  <si>
+    <t>Verification of the search functionality for overall table in the EDGE Device screen with invalid data</t>
+  </si>
+  <si>
+    <t>James Bond</t>
+  </si>
+  <si>
+    <t>James Bond_007</t>
+  </si>
+  <si>
+    <t>James Bond_002</t>
+  </si>
+  <si>
+    <t>James Bond_011</t>
+  </si>
+  <si>
+    <t>TC36_Verification of Add screen of EDGE Device module</t>
+  </si>
+  <si>
+    <t>Verification of Add screen of EDGE Device module</t>
+  </si>
+  <si>
+    <t>Verification of landed on EDGE&gt;Application Configuration Screen</t>
+  </si>
+  <si>
+    <t>TC57_Verification of Viewing of all the steppers &amp; select the application to deploy application in Individual EDGE Device</t>
   </si>
 </sst>
 </file>
@@ -831,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1267,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1857,6 +1887,72 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1920,8 +2016,14 @@
     <hyperlink ref="E30" r:id="rId58"/>
     <hyperlink ref="D31" r:id="rId59"/>
     <hyperlink ref="E31" r:id="rId60"/>
+    <hyperlink ref="D32" r:id="rId61"/>
+    <hyperlink ref="E32" r:id="rId62"/>
+    <hyperlink ref="D33" r:id="rId63"/>
+    <hyperlink ref="E33" r:id="rId64"/>
+    <hyperlink ref="D34" r:id="rId65"/>
+    <hyperlink ref="E34" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
--- a/cdm/CDMCucumber/CDMProject/src/test/resources/TestData/data.xlsx
+++ b/cdm/CDMCucumber/CDMProject/src/test/resources/TestData/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="180">
   <si>
     <t>TCName</t>
   </si>
@@ -438,6 +438,138 @@
   </si>
   <si>
     <t>TC57_Verification of Viewing of all the steppers &amp; select the application to deploy application in Individual EDGE Device</t>
+  </si>
+  <si>
+    <t>TC38_Verification of blank value rejections in available fields of Registration &amp; Licence sections in Add screen of EDGE Device module</t>
+  </si>
+  <si>
+    <t>Verification of blank value rejections in available fields of Registration &amp; Licence sections in Add screen of EDGE Device module</t>
+  </si>
+  <si>
+    <t>TC37_Verification of blank value rejections in available fields of Health section in Add screen of EDGE Device module</t>
+  </si>
+  <si>
+    <t>Verification of blank value rejections in available fields of Health section in Add screen of EDGE Device module</t>
+  </si>
+  <si>
+    <t>TC39_Verification of blank value rejections in available fields of Deployment section in Add screen</t>
+  </si>
+  <si>
+    <t>Verification of blank value rejections in available fields of Deployment section in Add screen</t>
+  </si>
+  <si>
+    <t>TC40_Verification of redirection functionality for Cancel icon in Add screen</t>
+  </si>
+  <si>
+    <t>Verification of redirection functionality for Cancel icon in Add screen</t>
+  </si>
+  <si>
+    <t>Verification of entry of valid data for all the text fields (Mandatory &amp; Optional) in Add screen</t>
+  </si>
+  <si>
+    <t>TC42_Verification of entry of valid data for all the text fields (Mandatory &amp; Optional) in Add screen</t>
+  </si>
+  <si>
+    <t>Devendram027</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Kaleem</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Hardware103</t>
+  </si>
+  <si>
+    <t>Birlasoft</t>
+  </si>
+  <si>
+    <t>TC43_Verification of the acceptance of Numeric values in EDGE ID Text field in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>Verification of the acceptance of Numeric values in EDGE ID Text field in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Verification of the acceptance of alphanumeric with special char values EDGE ID Text field in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>abcd$we#!</t>
+  </si>
+  <si>
+    <t>TC45_Verification of breaching the Max character limit in EDGE ID Text field in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>Verification of breaching the Max character limit in EDGE ID Text field in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>TC44_Verification of the acceptance of alphanumeric with special char values EDGE Name Text field in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TC46_Verification of breaching the Max character limit in EDGE  Name Text field in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>Verification of breaching the Max character limit in EDGE  Name Text field in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Verification of selection of the from organization drop down in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>TC47_Verification of selection of the from organization drop down in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>TC48_Verification of selection of the from EDGE Group Name drop down in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>Verification of selection of the from EDGE Group Name drop down in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>TC53_Verification of modify the value in available mandatory fields of Identity section in EDIT screen</t>
+  </si>
+  <si>
+    <t>Verification of modify the value in available mandatory fields of Identity section in EDIT screen</t>
+  </si>
+  <si>
+    <t>Rajivgandhi</t>
+  </si>
+  <si>
+    <t>TC70_Verification of all fields available on ADD Screen</t>
+  </si>
+  <si>
+    <t>Verification of all fields available on ADD Screen</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Devenram@birlasoft.com</t>
+  </si>
+  <si>
+    <t>Deven123</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Value10</t>
   </si>
 </sst>
 </file>
@@ -530,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,6 +686,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1287,9 +1424,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1297,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1308,11 +1450,13 @@
     <col min="1" max="1" width="87.6328125" customWidth="1"/>
     <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="49.26953125" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1472,7 @@
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1343,8 +1487,23 @@
       <c r="J1" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="130" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="130" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1361,7 +1520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="130" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="130" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1378,7 +1537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="130" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="130" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1395,7 +1554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="91" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1412,7 +1571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="78" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1429,7 +1588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="117" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="117" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1446,7 +1605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1462,11 +1621,11 @@
       <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1483,7 +1642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1500,7 +1659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -1517,7 +1676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1534,7 +1693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1551,7 +1710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1568,7 +1727,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -1585,7 +1744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -1788,7 +1947,7 @@
       <c r="E27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="10" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1808,7 +1967,7 @@
       <c r="E28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="10" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1828,7 +1987,7 @@
       <c r="E29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1848,7 +2007,7 @@
       <c r="E30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="10" t="s">
         <v>119</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -1880,7 +2039,7 @@
       <c r="E31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="10" t="s">
         <v>110</v>
       </c>
       <c r="G31" s="5"/>
@@ -1904,7 +2063,7 @@
       <c r="E32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="10" t="s">
         <v>128</v>
       </c>
       <c r="G32" t="s">
@@ -1920,7 +2079,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -1937,93 +2096,431 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" t="s">
+        <v>148</v>
+      </c>
+      <c r="K38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="H43" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" t="s">
+        <v>172</v>
+      </c>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>41</v>
+      <c r="C46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" t="s">
+        <v>153</v>
+      </c>
+      <c r="I46" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" t="s">
+        <v>152</v>
+      </c>
+      <c r="L46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" t="s">
+        <v>153</v>
+      </c>
+      <c r="I47" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" t="s">
+        <v>148</v>
+      </c>
+      <c r="K47" t="s">
+        <v>152</v>
+      </c>
+      <c r="L47" t="s">
+        <v>121</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="N47" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="D4" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="D5" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8"/>
-    <hyperlink ref="D6" r:id="rId9"/>
-    <hyperlink ref="E6" r:id="rId10"/>
-    <hyperlink ref="D7" r:id="rId11"/>
-    <hyperlink ref="E7" r:id="rId12"/>
-    <hyperlink ref="D8" r:id="rId13"/>
-    <hyperlink ref="E8" r:id="rId14"/>
-    <hyperlink ref="D9" r:id="rId15"/>
-    <hyperlink ref="E9" r:id="rId16"/>
-    <hyperlink ref="D10" r:id="rId17"/>
-    <hyperlink ref="E10" r:id="rId18"/>
-    <hyperlink ref="D11" r:id="rId19"/>
-    <hyperlink ref="E11" r:id="rId20"/>
-    <hyperlink ref="D12" r:id="rId21"/>
-    <hyperlink ref="E12" r:id="rId22"/>
-    <hyperlink ref="D13" r:id="rId23"/>
-    <hyperlink ref="E13" r:id="rId24"/>
-    <hyperlink ref="D14" r:id="rId25"/>
-    <hyperlink ref="E14" r:id="rId26"/>
-    <hyperlink ref="D15" r:id="rId27"/>
-    <hyperlink ref="E15" r:id="rId28"/>
-    <hyperlink ref="D16" r:id="rId29"/>
-    <hyperlink ref="E16" r:id="rId30"/>
-    <hyperlink ref="D25" r:id="rId31"/>
-    <hyperlink ref="E25" r:id="rId32"/>
-    <hyperlink ref="D17" r:id="rId33"/>
-    <hyperlink ref="D18" r:id="rId34"/>
-    <hyperlink ref="D19" r:id="rId35"/>
-    <hyperlink ref="D20" r:id="rId36"/>
-    <hyperlink ref="D21" r:id="rId37"/>
-    <hyperlink ref="D22" r:id="rId38"/>
-    <hyperlink ref="D23" r:id="rId39"/>
-    <hyperlink ref="E17" r:id="rId40"/>
-    <hyperlink ref="E18" r:id="rId41"/>
-    <hyperlink ref="E19" r:id="rId42"/>
-    <hyperlink ref="E20" r:id="rId43"/>
-    <hyperlink ref="E21" r:id="rId44"/>
-    <hyperlink ref="E22" r:id="rId45"/>
-    <hyperlink ref="E23" r:id="rId46"/>
-    <hyperlink ref="D24" r:id="rId47"/>
-    <hyperlink ref="E24" r:id="rId48"/>
-    <hyperlink ref="D26" r:id="rId49"/>
-    <hyperlink ref="E26" r:id="rId50"/>
-    <hyperlink ref="D27" r:id="rId51"/>
-    <hyperlink ref="E27" r:id="rId52"/>
-    <hyperlink ref="D28" r:id="rId53"/>
-    <hyperlink ref="E28" r:id="rId54"/>
-    <hyperlink ref="D29" r:id="rId55"/>
-    <hyperlink ref="E29" r:id="rId56"/>
-    <hyperlink ref="D30" r:id="rId57"/>
-    <hyperlink ref="E30" r:id="rId58"/>
-    <hyperlink ref="D31" r:id="rId59"/>
-    <hyperlink ref="E31" r:id="rId60"/>
-    <hyperlink ref="D32" r:id="rId61"/>
-    <hyperlink ref="E32" r:id="rId62"/>
-    <hyperlink ref="D33" r:id="rId63"/>
-    <hyperlink ref="E33" r:id="rId64"/>
-    <hyperlink ref="D34" r:id="rId65"/>
-    <hyperlink ref="E34" r:id="rId66"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="E8" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="E9" r:id="rId10"/>
+    <hyperlink ref="D10" r:id="rId11"/>
+    <hyperlink ref="E10" r:id="rId12"/>
+    <hyperlink ref="D11" r:id="rId13"/>
+    <hyperlink ref="E11" r:id="rId14"/>
+    <hyperlink ref="D12" r:id="rId15"/>
+    <hyperlink ref="E12" r:id="rId16"/>
+    <hyperlink ref="D13" r:id="rId17"/>
+    <hyperlink ref="E13" r:id="rId18"/>
+    <hyperlink ref="D14" r:id="rId19"/>
+    <hyperlink ref="E14" r:id="rId20"/>
+    <hyperlink ref="D15" r:id="rId21"/>
+    <hyperlink ref="E15" r:id="rId22"/>
+    <hyperlink ref="D16" r:id="rId23"/>
+    <hyperlink ref="E16" r:id="rId24"/>
+    <hyperlink ref="D25" r:id="rId25"/>
+    <hyperlink ref="E25" r:id="rId26"/>
+    <hyperlink ref="D17" r:id="rId27"/>
+    <hyperlink ref="D18" r:id="rId28"/>
+    <hyperlink ref="D19" r:id="rId29"/>
+    <hyperlink ref="D20" r:id="rId30"/>
+    <hyperlink ref="D21" r:id="rId31"/>
+    <hyperlink ref="D22" r:id="rId32"/>
+    <hyperlink ref="D23" r:id="rId33"/>
+    <hyperlink ref="E17" r:id="rId34"/>
+    <hyperlink ref="E18" r:id="rId35"/>
+    <hyperlink ref="E19" r:id="rId36"/>
+    <hyperlink ref="E20" r:id="rId37"/>
+    <hyperlink ref="E21" r:id="rId38"/>
+    <hyperlink ref="E22" r:id="rId39"/>
+    <hyperlink ref="E23" r:id="rId40"/>
+    <hyperlink ref="D24" r:id="rId41"/>
+    <hyperlink ref="E24" r:id="rId42"/>
+    <hyperlink ref="D26" r:id="rId43"/>
+    <hyperlink ref="E26" r:id="rId44"/>
+    <hyperlink ref="D27" r:id="rId45"/>
+    <hyperlink ref="E27" r:id="rId46"/>
+    <hyperlink ref="D28" r:id="rId47"/>
+    <hyperlink ref="E28" r:id="rId48"/>
+    <hyperlink ref="D29" r:id="rId49"/>
+    <hyperlink ref="E29" r:id="rId50"/>
+    <hyperlink ref="D30" r:id="rId51"/>
+    <hyperlink ref="E30" r:id="rId52"/>
+    <hyperlink ref="D31" r:id="rId53"/>
+    <hyperlink ref="E31" r:id="rId54"/>
+    <hyperlink ref="D32" r:id="rId55"/>
+    <hyperlink ref="E32" r:id="rId56"/>
+    <hyperlink ref="D33" r:id="rId57"/>
+    <hyperlink ref="E33" r:id="rId58"/>
+    <hyperlink ref="D46" r:id="rId59"/>
+    <hyperlink ref="E46" r:id="rId60"/>
+    <hyperlink ref="D35" r:id="rId61"/>
+    <hyperlink ref="E35" r:id="rId62"/>
+    <hyperlink ref="D34" r:id="rId63"/>
+    <hyperlink ref="E34" r:id="rId64"/>
+    <hyperlink ref="D36" r:id="rId65"/>
+    <hyperlink ref="E36" r:id="rId66"/>
+    <hyperlink ref="D37" r:id="rId67"/>
+    <hyperlink ref="E37" r:id="rId68"/>
+    <hyperlink ref="D38" r:id="rId69"/>
+    <hyperlink ref="E38" r:id="rId70"/>
+    <hyperlink ref="D39" r:id="rId71"/>
+    <hyperlink ref="E39" r:id="rId72"/>
+    <hyperlink ref="D40" r:id="rId73"/>
+    <hyperlink ref="E40" r:id="rId74"/>
+    <hyperlink ref="D41" r:id="rId75"/>
+    <hyperlink ref="E41" r:id="rId76"/>
+    <hyperlink ref="D42" r:id="rId77"/>
+    <hyperlink ref="E42" r:id="rId78"/>
+    <hyperlink ref="D43" r:id="rId79"/>
+    <hyperlink ref="E43" r:id="rId80"/>
+    <hyperlink ref="D44" r:id="rId81"/>
+    <hyperlink ref="E44" r:id="rId82"/>
+    <hyperlink ref="D45" r:id="rId83"/>
+    <hyperlink ref="E45" r:id="rId84"/>
+    <hyperlink ref="D47" r:id="rId85"/>
+    <hyperlink ref="E47" r:id="rId86"/>
+    <hyperlink ref="M47" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
+  <pageSetup orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
--- a/cdm/CDMCucumber/CDMProject/src/test/resources/TestData/data.xlsx
+++ b/cdm/CDMCucumber/CDMProject/src/test/resources/TestData/data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="291">
   <si>
     <t>TCName</t>
   </si>
@@ -570,6 +571,339 @@
   </si>
   <si>
     <t>Value10</t>
+  </si>
+  <si>
+    <t>Value11</t>
+  </si>
+  <si>
+    <t>20.127.21.109</t>
+  </si>
+  <si>
+    <t>Value12</t>
+  </si>
+  <si>
+    <t>SerialNumber5678</t>
+  </si>
+  <si>
+    <t>OnBoardingKey93847346</t>
+  </si>
+  <si>
+    <t>Devendram23</t>
+  </si>
+  <si>
+    <t>Verification of search of AppName under deployment tab</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Kurushetra</t>
+  </si>
+  <si>
+    <t>rBOX_SAC</t>
+  </si>
+  <si>
+    <t>This is for test purpose</t>
+  </si>
+  <si>
+    <t>Value13</t>
+  </si>
+  <si>
+    <t>serialnumber1111</t>
+  </si>
+  <si>
+    <t>OnBoardingKey707</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>prashant@gmail.com</t>
+  </si>
+  <si>
+    <t>prashant123</t>
+  </si>
+  <si>
+    <t>Value14</t>
+  </si>
+  <si>
+    <t>Value15</t>
+  </si>
+  <si>
+    <t>EDGE1</t>
+  </si>
+  <si>
+    <t>ED-1</t>
+  </si>
+  <si>
+    <t>Value16</t>
+  </si>
+  <si>
+    <t>Value17</t>
+  </si>
+  <si>
+    <t>eclipse-mosquitto-app</t>
+  </si>
+  <si>
+    <t>TC71_Verification of deployment List Functionality</t>
+  </si>
+  <si>
+    <t>Value18</t>
+  </si>
+  <si>
+    <t>BROKEN</t>
+  </si>
+  <si>
+    <t>Value19</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Verification of Environmental variable Add inactive Functionality</t>
+  </si>
+  <si>
+    <t>rBox_SAC</t>
+  </si>
+  <si>
+    <t>Value20</t>
+  </si>
+  <si>
+    <t>Value21</t>
+  </si>
+  <si>
+    <t>TesterTested</t>
+  </si>
+  <si>
+    <t>TC72_Verification of Environmental variable Add inactive Functionality</t>
+  </si>
+  <si>
+    <t>TC73_Verification of Environmental variable delete Functionality</t>
+  </si>
+  <si>
+    <t>Verification of Environmental variable delete Functionality</t>
+  </si>
+  <si>
+    <t>TC74_Verification of Environmental variable edit Functionality</t>
+  </si>
+  <si>
+    <t>Verification of Environmental variable edit Functionality</t>
+  </si>
+  <si>
+    <t>Christmas Carol</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>TC75_Verification of Environmental variable bulk upload Functionality</t>
+  </si>
+  <si>
+    <t>Verification of Environmental variable bulk upload Functionality</t>
+  </si>
+  <si>
+    <t>E:\Devendra\cdm\CDMCucumber\CDMProject\src\test\resources\TestData</t>
+  </si>
+  <si>
+    <t>Value22</t>
+  </si>
+  <si>
+    <t>TC76_Verification of Environmental variable search Functionality</t>
+  </si>
+  <si>
+    <t>Verification of Environmental variable search Functionality</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>TC01_Verification of Browser Compatibility of EDGE Group module</t>
+  </si>
+  <si>
+    <t>TC03_Verification of displaying the EDGE Group table</t>
+  </si>
+  <si>
+    <t>TC04_Verification of Add, Refresh, Application deployment,Bulk upload &amp; Download button icons</t>
+  </si>
+  <si>
+    <t>TC05_Verification of Refreshing button functionality in the EDGE Group</t>
+  </si>
+  <si>
+    <t>TC07_Verification of Search button functionality in the EDGE Group</t>
+  </si>
+  <si>
+    <t>TC08_Verification of Application Deployment button functionality</t>
+  </si>
+  <si>
+    <t>TC10_Verification of displaying the Edit screen in the EDGE Group</t>
+  </si>
+  <si>
+    <t>TC12_Verification of Application Deploy functionality</t>
+  </si>
+  <si>
+    <t>TC13_Verification of tooltip functionality for Edit (pen) icon button under action column</t>
+  </si>
+  <si>
+    <t>TC14_Verification of tooltip functionality for Delete icon under Actions column</t>
+  </si>
+  <si>
+    <t>TC15_Verification of tooltip functionality for View Alert(Notifications) icon in Actions column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC17_Verification of changing the items per page functionality </t>
+  </si>
+  <si>
+    <t>TC18_Verification of displaying the items per page by default i.e.25 per page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC19_Verification of displaying the total number of records with pagination icons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC20_Verification of displaying the First page (Full Backward arrow) button </t>
+  </si>
+  <si>
+    <t>TC21_Verification of displaying the Last page (Full Forward arrow button)</t>
+  </si>
+  <si>
+    <t>TC22_Verification of displaying the Next page (Forward arrow button)</t>
+  </si>
+  <si>
+    <t>TC23_Verification of displaying the Previous page (Backward arrow button)</t>
+  </si>
+  <si>
+    <t>TC24_Verification of the search functionality for Group Name column (Valid Group Name)</t>
+  </si>
+  <si>
+    <t>TC25_Verification of the search functionality for Group Name column (InValid Group Name)</t>
+  </si>
+  <si>
+    <t>TC26_Verification of the search functionality for Status column (Valid Status entry)</t>
+  </si>
+  <si>
+    <t>TC27_Verification of the change in colour of three dots for all columns in the EDGE Group List screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC28_Verification of the display of search bar and text for all columns </t>
+  </si>
+  <si>
+    <t>TC29_Verification of the removal of search results and text for all columns</t>
+  </si>
+  <si>
+    <t>TC30_Verification of blank value rejections in available fields of Identity section in Add screen</t>
+  </si>
+  <si>
+    <t>TC31_ Verification of blank value rejections in available fields of Health section in Add screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC32_Verification of redirection functionality for Cancel icon in Add screen </t>
+  </si>
+  <si>
+    <t>TC33_Verification of blank value rejections in mandatory fields of Identity section in Add screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC34_Verification of blank value rejections in available fields of Registration sections in Add screen  </t>
+  </si>
+  <si>
+    <t>TC35_Verification of blank value rejections in available fields of Deployment section in Add screen</t>
+  </si>
+  <si>
+    <t>TC36_Verification of blank value rejections in available fields of Configuration section in Add screen</t>
+  </si>
+  <si>
+    <t>TC37_Verification of acceptance of Numeric,Special, alphabets  char values in GROUP ID Text field in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>TC38_Verification of acceptance of Alphanumeric,special char values in GROUP Name Text field in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>TC39_Verification of breaching the Max character limit in Group ID Text field in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>TC40_Verification of breaching the Max character limit in Group Name Text field in the Identity section of User Add screen</t>
+  </si>
+  <si>
+    <t>TC41_Verification of selection of the from Application Group drop down in the Deployment section of User Add screen</t>
+  </si>
+  <si>
+    <t>TC42_Verification of selection of the from Maximum EDGE Nodes drop down in the Configuration section of User Add screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC43_Verification of selection of the from Maximum Server Nodes drop down in the Configuration section of User Add screen </t>
+  </si>
+  <si>
+    <t>TC44_Verification of selection of the from Delink EDGE Device drop down in the Configuration section of User Add screen</t>
+  </si>
+  <si>
+    <t>TC45_Verification of cloud button is on premise i.e.(Enable mode) in Configuration section in Add screen</t>
+  </si>
+  <si>
+    <t>TC46_Verification of selection of the from Maximum Application drop down in the Configuration section of User Add screen</t>
+  </si>
+  <si>
+    <t>TC47_Verification of upload of onboarding EDGE Configuration in Registration section in Add screen</t>
+  </si>
+  <si>
+    <t>TC48_Verification of Download of EDGE Configuration in Registration section in Add screen of EDGE Group add module</t>
+  </si>
+  <si>
+    <t>TC49_Verification of Viewing of all the steppers &amp; select the EDGE GROUP to deploy the application of EDGE Group module</t>
+  </si>
+  <si>
+    <t>TC50_Verification of select the Active APP GROUP for deploy the application</t>
+  </si>
+  <si>
+    <t>TC51_Verification of Single select of the Active EDGE Device for deploy the application</t>
+  </si>
+  <si>
+    <t>TC52_Verification of mulitiple select of the  Active  EDGE Device for deploy the application</t>
+  </si>
+  <si>
+    <t>TC53_Verification of Single select of the Active Application for deploy of EDGE Group module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC54_Verification of multi select of the Active Application for deploy module of EDGE Group </t>
+  </si>
+  <si>
+    <t>TC55_Verification of view of version tag when select of the Application for deploy module of EDGE Group</t>
+  </si>
+  <si>
+    <t>TC56_Verification of user unable to deploy without confirming the Config file for deploy module of EDGE Group</t>
+  </si>
+  <si>
+    <t>TC57_Verification of deployment failure on wrong On boarding key in EDGE Device</t>
+  </si>
+  <si>
+    <t>TC58_Verification of deployment failure on empty On boarding key in EDGE Device</t>
+  </si>
+  <si>
+    <t>TC60_Verification of deployment failure on wrong /empty Server Host Adress on EDGE Group</t>
+  </si>
+  <si>
+    <t>TC61_Verification of deployment creation only for single newly selected application during deployment</t>
+  </si>
+  <si>
+    <t>TC62_Verification of deployment creation only for multiple newly selected application during deployment</t>
+  </si>
+  <si>
+    <t>TC59_Verification of Single select of the Active Application for deploy of EDGE module</t>
+  </si>
+  <si>
+    <t>TC77_Verification of Well Mapping Functionality</t>
+  </si>
+  <si>
+    <t>Verification of Well Mapping Functionality</t>
+  </si>
+  <si>
+    <t>Test45</t>
+  </si>
+  <si>
+    <t>TestDec</t>
+  </si>
+  <si>
+    <t>Well45</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1439,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1454,9 +1788,12 @@
     <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.08984375" customWidth="1"/>
+    <col min="13" max="13" width="32.453125" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="22" max="22" width="19.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1502,8 +1839,44 @@
       <c r="O1" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="130" x14ac:dyDescent="0.35">
+      <c r="P1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="130" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1520,7 +1893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="130" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1537,7 +1910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="130" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1554,7 +1927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1571,7 +1944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1588,7 +1961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="117" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1605,7 +1978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="116" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1625,7 +1998,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1642,7 +2015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1659,7 +2032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -1676,7 +2049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1693,7 +2066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1710,7 +2083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1727,7 +2100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -1744,7 +2117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -1761,7 +2134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1778,7 +2151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -1795,7 +2168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -1812,7 +2185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1828,8 +2201,11 @@
       <c r="E20" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="X20" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -1846,7 +2222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -1863,7 +2239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -1880,7 +2256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -1897,7 +2273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -1914,7 +2290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -1931,7 +2307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -1951,7 +2327,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -1971,7 +2347,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -1991,7 +2367,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -2023,7 +2399,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -2047,7 +2423,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>126</v>
       </c>
@@ -2079,7 +2455,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -2096,7 +2472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -2113,7 +2489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="52" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -2130,7 +2506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -2147,7 +2523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -2164,7 +2540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -2199,7 +2575,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="52" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>154</v>
       </c>
@@ -2219,7 +2595,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="52" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -2240,7 +2616,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="52" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -2261,7 +2637,7 @@
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="52" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -2283,7 +2659,7 @@
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -2304,7 +2680,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -2326,7 +2702,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -2348,7 +2724,7 @@
       </c>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -2386,7 +2762,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>173</v>
       </c>
@@ -2406,7 +2782,7 @@
         <v>149</v>
       </c>
       <c r="G47" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="H47" t="s">
         <v>153</v>
@@ -2421,13 +2797,237 @@
         <v>152</v>
       </c>
       <c r="L47" t="s">
+        <v>183</v>
+      </c>
+      <c r="M47" t="s">
+        <v>184</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="P47" t="s">
         <v>121</v>
       </c>
-      <c r="M47" s="13" t="s">
+      <c r="Q47" t="s">
         <v>176</v>
       </c>
-      <c r="N47" t="s">
+      <c r="R47" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" t="s">
+        <v>153</v>
+      </c>
+      <c r="I48" t="s">
+        <v>147</v>
+      </c>
+      <c r="J48" t="s">
+        <v>148</v>
+      </c>
+      <c r="K48" t="s">
+        <v>189</v>
+      </c>
+      <c r="L48" t="s">
+        <v>192</v>
+      </c>
+      <c r="M48" t="s">
+        <v>193</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="O48">
+        <v>34343</v>
+      </c>
+      <c r="P48" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>195</v>
+      </c>
+      <c r="R48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S48" t="s">
+        <v>190</v>
+      </c>
+      <c r="T48" t="s">
+        <v>199</v>
+      </c>
+      <c r="U48" t="s">
+        <v>200</v>
+      </c>
+      <c r="V48" t="s">
+        <v>203</v>
+      </c>
+      <c r="W48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z49">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA52" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G54" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z54">
+        <v>13122023</v>
       </c>
     </row>
   </sheetData>
@@ -2518,9 +3118,948 @@
     <hyperlink ref="E45" r:id="rId84"/>
     <hyperlink ref="D47" r:id="rId85"/>
     <hyperlink ref="E47" r:id="rId86"/>
-    <hyperlink ref="M47" r:id="rId87"/>
+    <hyperlink ref="D3" r:id="rId87"/>
+    <hyperlink ref="D48" r:id="rId88"/>
+    <hyperlink ref="E48" r:id="rId89"/>
+    <hyperlink ref="D49" r:id="rId90"/>
+    <hyperlink ref="E49" r:id="rId91"/>
+    <hyperlink ref="D50" r:id="rId92"/>
+    <hyperlink ref="E50" r:id="rId93"/>
+    <hyperlink ref="D51" r:id="rId94"/>
+    <hyperlink ref="E51" r:id="rId95"/>
+    <hyperlink ref="D52" r:id="rId96"/>
+    <hyperlink ref="E52" r:id="rId97"/>
+    <hyperlink ref="D4" r:id="rId98"/>
+    <hyperlink ref="D53" r:id="rId99"/>
+    <hyperlink ref="E53" r:id="rId100"/>
+    <hyperlink ref="D54" r:id="rId101"/>
+    <hyperlink ref="E54" r:id="rId102"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId88"/>
+  <pageSetup orientation="portrait" r:id="rId103"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="118.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>268</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>272</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>282</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D57" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>